--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value426.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value426.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9177633600028656</v>
+        <v>1.120882630348206</v>
       </c>
       <c r="B1">
-        <v>1.349984428449308</v>
+        <v>2.341852188110352</v>
       </c>
       <c r="C1">
-        <v>2.283760352355638</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.587890898223416</v>
+        <v>1.824825048446655</v>
       </c>
       <c r="E1">
-        <v>1.931206322419221</v>
+        <v>1.224672079086304</v>
       </c>
     </row>
   </sheetData>
